--- a/Data/Results/RuntimeResult_SimpleRuleTest.xlsx
+++ b/Data/Results/RuntimeResult_SimpleRuleTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Master\Hochschule Fulda\Module\Masterarbeit\Implementierungen\Data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5024B6-8A98-4436-B075-7CCC2BF9C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F51FC-4737-41D0-82C2-24B5CA20F262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,8 +534,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -880,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,7 +895,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +954,7 @@
         <v>4140139</v>
       </c>
       <c r="E2">
-        <v>3.6112538000000001</v>
+        <v>3.8003471000000002</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -965,9 +969,9 @@
         <f t="shared" ref="J2:J9" si="0">SUMIFS(D:D,A:A,G2,B:B,H2,C:C,I2)/COUNTIFS(A:A,G2,B:B,H2,C:C,I2)</f>
         <v>4137964</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <f t="shared" ref="K2:K9" si="1">SUMIFS(E:E,A:A,G2,B:B,H2,C:C,I2)/COUNTIFS(A:A,G2,B:B,H2,C:C,I2)</f>
-        <v>3.5603916099999999</v>
+        <v>3.7078795700000002</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -984,7 +988,7 @@
         <v>4140022</v>
       </c>
       <c r="E3">
-        <v>4.2774862999999996</v>
+        <v>4.4857288000000004</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -999,9 +1003,9 @@
         <f t="shared" si="0"/>
         <v>4140139</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f t="shared" si="1"/>
-        <v>3.5768398299999999</v>
+        <v>3.7097675000000003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1018,7 +1022,7 @@
         <v>4137964</v>
       </c>
       <c r="E4">
-        <v>3.3784114999999999</v>
+        <v>3.6816374999999999</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1033,9 +1037,9 @@
         <f t="shared" si="0"/>
         <v>4137964</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>3.5546135799999994</v>
+        <v>3.6684777600000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1052,7 +1056,7 @@
         <v>4137915</v>
       </c>
       <c r="E5">
-        <v>4.4104061999999997</v>
+        <v>4.5435591000000004</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1067,9 +1071,9 @@
         <f t="shared" si="0"/>
         <v>4138010</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5638318700000005</v>
+        <v>3.6938279000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,7 +1090,7 @@
         <v>4138010</v>
       </c>
       <c r="E6">
-        <v>3.4805190000000001</v>
+        <v>3.5916933000000002</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1101,9 +1105,9 @@
         <f t="shared" si="0"/>
         <v>4137915</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>4.4849703200000004</v>
+        <v>4.6448076700000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1120,7 +1124,7 @@
         <v>4137961</v>
       </c>
       <c r="E7">
-        <v>4.3417275000000002</v>
+        <v>4.6030367999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1135,9 +1139,9 @@
         <f t="shared" si="0"/>
         <v>4140022</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>4.4884472100000004</v>
+        <v>4.6538277800000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1154,7 +1158,7 @@
         <v>4137964</v>
       </c>
       <c r="E8">
-        <v>3.4497501000000002</v>
+        <v>3.6999309999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1169,9 +1173,9 @@
         <f t="shared" si="0"/>
         <v>4137915</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>4.5061393200000008</v>
+        <v>4.6469742699999994</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,7 +1192,7 @@
         <v>4137915</v>
       </c>
       <c r="E9">
-        <v>4.3276176</v>
+        <v>4.4825448000000003</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1203,9 +1207,9 @@
         <f t="shared" si="0"/>
         <v>4137961</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>4.5301342800000004</v>
+        <v>4.6513383500000014</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1222,7 +1226,7 @@
         <v>4140139</v>
       </c>
       <c r="E10">
-        <v>3.5277181</v>
+        <v>3.5828508000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,7 +1243,7 @@
         <v>4140022</v>
       </c>
       <c r="E11">
-        <v>4.4189008999999997</v>
+        <v>4.5977014</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1256,7 +1260,7 @@
         <v>4137964</v>
       </c>
       <c r="E12">
-        <v>3.423908</v>
+        <v>3.6827163000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1273,7 +1277,7 @@
         <v>4137915</v>
       </c>
       <c r="E13">
-        <v>4.3705889999999998</v>
+        <v>4.5521782000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,7 +1294,7 @@
         <v>4138010</v>
       </c>
       <c r="E14">
-        <v>3.4751473000000002</v>
+        <v>3.6014433000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1307,7 +1311,7 @@
         <v>4137961</v>
       </c>
       <c r="E15">
-        <v>4.3995813000000004</v>
+        <v>4.6879552999999996</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1324,7 +1328,7 @@
         <v>4137964</v>
       </c>
       <c r="E16">
-        <v>3.4748074999999998</v>
+        <v>3.6767837000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,7 +1345,7 @@
         <v>4137915</v>
       </c>
       <c r="E17">
-        <v>4.3574378999999999</v>
+        <v>4.7238417000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1362,7 @@
         <v>4140139</v>
       </c>
       <c r="E18">
-        <v>3.4724287999999999</v>
+        <v>3.8396873999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,7 +1379,7 @@
         <v>4140022</v>
       </c>
       <c r="E19">
-        <v>4.4255984000000002</v>
+        <v>4.6329832</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,7 +1396,7 @@
         <v>4137964</v>
       </c>
       <c r="E20">
-        <v>3.6051139999999999</v>
+        <v>3.6658575999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,7 +1413,7 @@
         <v>4137915</v>
       </c>
       <c r="E21">
-        <v>4.4254878</v>
+        <v>4.7075516999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,7 +1430,7 @@
         <v>4138010</v>
       </c>
       <c r="E22">
-        <v>3.5080988999999998</v>
+        <v>3.9832972</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1447,7 @@
         <v>4137961</v>
       </c>
       <c r="E23">
-        <v>4.5347920999999998</v>
+        <v>4.5997113000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,7 +1464,7 @@
         <v>4137964</v>
       </c>
       <c r="E24">
-        <v>3.5374143</v>
+        <v>3.8389473999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,7 +1481,7 @@
         <v>4137915</v>
       </c>
       <c r="E25">
-        <v>4.4065212000000002</v>
+        <v>4.5300745999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,7 +1498,7 @@
         <v>4140139</v>
       </c>
       <c r="E26">
-        <v>3.5782737</v>
+        <v>3.5767585</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,7 +1515,7 @@
         <v>4140022</v>
       </c>
       <c r="E27">
-        <v>4.4612549000000001</v>
+        <v>4.6489235999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,7 +1532,7 @@
         <v>4137964</v>
       </c>
       <c r="E28">
-        <v>3.5392692000000001</v>
+        <v>3.7261120000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,7 +1549,7 @@
         <v>4137915</v>
       </c>
       <c r="E29">
-        <v>4.4275131999999999</v>
+        <v>4.5499508999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,7 +1566,7 @@
         <v>4138010</v>
       </c>
       <c r="E30">
-        <v>3.5515376000000001</v>
+        <v>3.6627353</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,7 +1583,7 @@
         <v>4137961</v>
       </c>
       <c r="E31">
-        <v>4.5108667000000002</v>
+        <v>4.5611762000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1596,7 +1600,7 @@
         <v>4137964</v>
       </c>
       <c r="E32">
-        <v>3.5623819999999999</v>
+        <v>3.6985065000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1613,7 +1617,7 @@
         <v>4137915</v>
       </c>
       <c r="E33">
-        <v>4.4836149000000001</v>
+        <v>4.7248600999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1630,7 +1634,7 @@
         <v>4140139</v>
       </c>
       <c r="E34">
-        <v>3.5190019000000001</v>
+        <v>3.6768428000000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,7 +1651,7 @@
         <v>4140022</v>
       </c>
       <c r="E35">
-        <v>4.5793048000000001</v>
+        <v>4.6445451999999996</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,7 +1668,7 @@
         <v>4137964</v>
       </c>
       <c r="E36">
-        <v>3.5395774000000002</v>
+        <v>3.6672658999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,7 +1685,7 @@
         <v>4137915</v>
       </c>
       <c r="E37">
-        <v>4.4896336000000003</v>
+        <v>4.8105118999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,7 +1702,7 @@
         <v>4138010</v>
       </c>
       <c r="E38">
-        <v>3.5478817</v>
+        <v>3.702753</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,7 +1719,7 @@
         <v>4137961</v>
       </c>
       <c r="E39">
-        <v>4.5270419999999998</v>
+        <v>4.6840023999999998</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,7 +1736,7 @@
         <v>4137964</v>
       </c>
       <c r="E40">
-        <v>3.5506695000000001</v>
+        <v>3.7137481999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,7 +1753,7 @@
         <v>4137915</v>
       </c>
       <c r="E41">
-        <v>4.4689116000000002</v>
+        <v>4.7295375000000002</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,7 +1770,7 @@
         <v>4140139</v>
       </c>
       <c r="E42">
-        <v>3.5666023</v>
+        <v>3.7064783000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,7 +1787,7 @@
         <v>4140022</v>
       </c>
       <c r="E43">
-        <v>4.4863423999999998</v>
+        <v>4.7791082999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,7 +1804,7 @@
         <v>4137964</v>
       </c>
       <c r="E44">
-        <v>3.6628953000000002</v>
+        <v>3.7758683999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,7 +1821,7 @@
         <v>4137915</v>
       </c>
       <c r="E45">
-        <v>4.5043346</v>
+        <v>4.8463251999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,7 +1838,7 @@
         <v>4138010</v>
       </c>
       <c r="E46">
-        <v>3.5243319999999998</v>
+        <v>3.6969208</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,7 +1855,7 @@
         <v>4137961</v>
       </c>
       <c r="E47">
-        <v>4.6708284000000004</v>
+        <v>4.7284933999999996</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,7 +1872,7 @@
         <v>4137964</v>
       </c>
       <c r="E48">
-        <v>3.6168277</v>
+        <v>3.7218374000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,7 +1889,7 @@
         <v>4137915</v>
       </c>
       <c r="E49">
-        <v>4.4714964999999998</v>
+        <v>4.6775127000000003</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,7 +1906,7 @@
         <v>4140139</v>
       </c>
       <c r="E50">
-        <v>3.6435951000000002</v>
+        <v>3.8437071999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,7 +1923,7 @@
         <v>4140022</v>
       </c>
       <c r="E51">
-        <v>4.5093424999999998</v>
+        <v>4.8066329000000003</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,7 +1940,7 @@
         <v>4137964</v>
       </c>
       <c r="E52">
-        <v>3.6171479999999998</v>
+        <v>3.6838810999999998</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,7 +1957,7 @@
         <v>4137915</v>
       </c>
       <c r="E53">
-        <v>4.5614020000000002</v>
+        <v>4.6412823000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,7 +1974,7 @@
         <v>4138010</v>
       </c>
       <c r="E54">
-        <v>3.5496645</v>
+        <v>3.6854056000000002</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,7 +1991,7 @@
         <v>4137961</v>
       </c>
       <c r="E55">
-        <v>4.5761544000000001</v>
+        <v>4.6414352000000001</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,7 +2008,7 @@
         <v>4137964</v>
       </c>
       <c r="E56">
-        <v>3.5447437000000002</v>
+        <v>3.7013096000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,7 +2025,7 @@
         <v>4137915</v>
       </c>
       <c r="E57">
-        <v>4.5039853000000001</v>
+        <v>4.6536789000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,7 +2042,7 @@
         <v>4140139</v>
       </c>
       <c r="E58">
-        <v>3.6213074000000001</v>
+        <v>3.6530615000000002</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,7 +2059,7 @@
         <v>4140022</v>
       </c>
       <c r="E59">
-        <v>4.5493842000000004</v>
+        <v>4.6108077999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,7 +2076,7 @@
         <v>4137964</v>
       </c>
       <c r="E60">
-        <v>3.5598915999999998</v>
+        <v>3.5953406000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,7 +2093,7 @@
         <v>4137915</v>
       </c>
       <c r="E61">
-        <v>4.6128539999999996</v>
+        <v>4.6198399999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,7 +2110,7 @@
         <v>4138010</v>
       </c>
       <c r="E62">
-        <v>3.7403951000000002</v>
+        <v>3.6407698000000002</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,7 +2127,7 @@
         <v>4137961</v>
       </c>
       <c r="E63">
-        <v>4.6341017999999998</v>
+        <v>4.6670176999999997</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,7 +2144,7 @@
         <v>4137964</v>
       </c>
       <c r="E64">
-        <v>3.5967677999999998</v>
+        <v>3.7021975999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,7 +2161,7 @@
         <v>4137915</v>
       </c>
       <c r="E65">
-        <v>4.5469056999999999</v>
+        <v>4.588584</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,7 +2178,7 @@
         <v>4140139</v>
       </c>
       <c r="E66">
-        <v>3.6325270000000001</v>
+        <v>3.7927040999999999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,7 +2195,7 @@
         <v>4140022</v>
       </c>
       <c r="E67">
-        <v>4.5899760000000001</v>
+        <v>4.6619650000000004</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,7 +2212,7 @@
         <v>4137964</v>
       </c>
       <c r="E68">
-        <v>3.6157518</v>
+        <v>3.5855926</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,7 +2229,7 @@
         <v>4137915</v>
       </c>
       <c r="E69">
-        <v>4.5822206999999997</v>
+        <v>4.577191</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,7 +2246,7 @@
         <v>4138010</v>
       </c>
       <c r="E70">
-        <v>3.6231160999999998</v>
+        <v>3.6522793999999998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,7 +2263,7 @@
         <v>4137961</v>
       </c>
       <c r="E71">
-        <v>4.4924606999999996</v>
+        <v>4.7756053999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,7 +2280,7 @@
         <v>4137964</v>
       </c>
       <c r="E72">
-        <v>3.6074457</v>
+        <v>3.6992872999999999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,7 +2297,7 @@
         <v>4137915</v>
       </c>
       <c r="E73">
-        <v>4.6402906000000002</v>
+        <v>4.5691546000000001</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,7 +2314,7 @@
         <v>4140139</v>
       </c>
       <c r="E74">
-        <v>3.5956901999999999</v>
+        <v>3.6252373000000002</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,7 +2331,7 @@
         <v>4140022</v>
       </c>
       <c r="E75">
-        <v>4.5868817000000002</v>
+        <v>4.6698816000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,7 +2348,7 @@
         <v>4137964</v>
       </c>
       <c r="E76">
-        <v>3.6041690000000002</v>
+        <v>3.6205056</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,7 +2365,7 @@
         <v>4137915</v>
       </c>
       <c r="E77">
-        <v>4.6769521000000003</v>
+        <v>4.6213524000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,7 +2382,7 @@
         <v>4138010</v>
       </c>
       <c r="E78">
-        <v>3.6376265000000001</v>
+        <v>3.7209813</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,7 +2399,7 @@
         <v>4137961</v>
       </c>
       <c r="E79">
-        <v>4.6137879000000002</v>
+        <v>4.5649497999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,7 +2416,7 @@
         <v>4137964</v>
       </c>
       <c r="E80">
-        <v>3.6631078000000001</v>
+        <v>3.6262470000000002</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,7 +2433,7 @@
         <v>4137915</v>
       </c>
       <c r="E81">
-        <v>4.6429219000000002</v>
+        <v>4.7682878000000004</v>
       </c>
     </row>
   </sheetData>
